--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.058936</v>
+        <v>0.05970899999999999</v>
       </c>
       <c r="H2">
-        <v>0.176808</v>
+        <v>0.179127</v>
       </c>
       <c r="I2">
-        <v>0.003640699631737656</v>
+        <v>0.003688274646134975</v>
       </c>
       <c r="J2">
-        <v>0.003640699631737656</v>
+        <v>0.003688274646134975</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.07360033333333334</v>
+        <v>0.07409833333333334</v>
       </c>
       <c r="N2">
-        <v>0.220801</v>
+        <v>0.222295</v>
       </c>
       <c r="O2">
-        <v>0.02873450582079328</v>
+        <v>0.02892330792240624</v>
       </c>
       <c r="P2">
-        <v>0.02873450582079328</v>
+        <v>0.02892330792240624</v>
       </c>
       <c r="Q2">
-        <v>0.004337709245333333</v>
+        <v>0.004424337384999999</v>
       </c>
       <c r="R2">
-        <v>0.039039383208</v>
+        <v>0.03981903646499999</v>
       </c>
       <c r="S2">
-        <v>0.0001046137047599256</v>
+        <v>0.0001066771032925658</v>
       </c>
       <c r="T2">
-        <v>0.0001046137047599256</v>
+        <v>0.0001066771032925658</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.058936</v>
+        <v>0.05970899999999999</v>
       </c>
       <c r="H3">
-        <v>0.176808</v>
+        <v>0.179127</v>
       </c>
       <c r="I3">
-        <v>0.003640699631737656</v>
+        <v>0.003688274646134975</v>
       </c>
       <c r="J3">
-        <v>0.003640699631737656</v>
+        <v>0.003688274646134975</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.264165</v>
       </c>
       <c r="O3">
-        <v>0.1645153624799848</v>
+        <v>0.1644833827109413</v>
       </c>
       <c r="P3">
-        <v>0.1645153624799848</v>
+        <v>0.1644833827109413</v>
       </c>
       <c r="Q3">
-        <v>0.02483494281333333</v>
+        <v>0.025160675995</v>
       </c>
       <c r="R3">
-        <v>0.22351448532</v>
+        <v>0.226446083955</v>
       </c>
       <c r="S3">
-        <v>0.0005989510195960676</v>
+        <v>0.0006066598901632805</v>
       </c>
       <c r="T3">
-        <v>0.0005989510195960676</v>
+        <v>0.0006066598901632806</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.058936</v>
+        <v>0.05970899999999999</v>
       </c>
       <c r="H4">
-        <v>0.176808</v>
+        <v>0.179127</v>
       </c>
       <c r="I4">
-        <v>0.003640699631737656</v>
+        <v>0.003688274646134975</v>
       </c>
       <c r="J4">
-        <v>0.003640699631737656</v>
+        <v>0.003688274646134975</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>6.199210000000001</v>
       </c>
       <c r="O4">
-        <v>0.8067501316992219</v>
+        <v>0.8065933093666526</v>
       </c>
       <c r="P4">
-        <v>0.8067501316992219</v>
+        <v>0.8065933093666525</v>
       </c>
       <c r="Q4">
-        <v>0.1217855468533333</v>
+        <v>0.12338287663</v>
       </c>
       <c r="R4">
-        <v>1.09606992168</v>
+        <v>1.11044588967</v>
       </c>
       <c r="S4">
-        <v>0.002937134907381663</v>
+        <v>0.002974937652679129</v>
       </c>
       <c r="T4">
-        <v>0.002937134907381663</v>
+        <v>0.002974937652679129</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>42.983926</v>
       </c>
       <c r="I5">
-        <v>0.8850932285803734</v>
+        <v>0.8850509663933519</v>
       </c>
       <c r="J5">
-        <v>0.8850932285803733</v>
+        <v>0.885050966393352</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07360033333333334</v>
+        <v>0.07409833333333334</v>
       </c>
       <c r="N5">
-        <v>0.220801</v>
+        <v>0.222295</v>
       </c>
       <c r="O5">
-        <v>0.02873450582079328</v>
+        <v>0.02892330792240624</v>
       </c>
       <c r="P5">
-        <v>0.02873450582079328</v>
+        <v>0.02892330792240624</v>
       </c>
       <c r="Q5">
-        <v>1.054543760525111</v>
+        <v>1.061679092241111</v>
       </c>
       <c r="R5">
-        <v>9.490893844726003</v>
+        <v>9.555111830169999</v>
       </c>
       <c r="S5">
-        <v>0.02543271652858746</v>
+        <v>0.02559860162801814</v>
       </c>
       <c r="T5">
-        <v>0.02543271652858745</v>
+        <v>0.02559860162801814</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>42.983926</v>
       </c>
       <c r="I6">
-        <v>0.8850932285803734</v>
+        <v>0.8850509663933519</v>
       </c>
       <c r="J6">
-        <v>0.8850932285803733</v>
+        <v>0.885050966393352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.264165</v>
       </c>
       <c r="O6">
-        <v>0.1645153624799848</v>
+        <v>0.1644833827109413</v>
       </c>
       <c r="P6">
-        <v>0.1645153624799848</v>
+        <v>0.1644833827109413</v>
       </c>
       <c r="Q6">
         <v>6.037641645754444</v>
@@ -818,10 +818,10 @@
         <v>54.33877481179</v>
       </c>
       <c r="S6">
-        <v>0.1456114333284802</v>
+        <v>0.1455761768239661</v>
       </c>
       <c r="T6">
-        <v>0.1456114333284802</v>
+        <v>0.1455761768239661</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>42.983926</v>
       </c>
       <c r="I7">
-        <v>0.8850932285803734</v>
+        <v>0.8850509663933519</v>
       </c>
       <c r="J7">
-        <v>0.8850932285803733</v>
+        <v>0.885050966393352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>6.199210000000001</v>
       </c>
       <c r="O7">
-        <v>0.8067501316992219</v>
+        <v>0.8065933093666526</v>
       </c>
       <c r="P7">
-        <v>0.8067501316992219</v>
+        <v>0.8065933093666525</v>
       </c>
       <c r="Q7">
         <v>29.60737598871778</v>
@@ -880,10 +880,10 @@
         <v>266.46638389846</v>
       </c>
       <c r="S7">
-        <v>0.7140490787233058</v>
+        <v>0.7138761879413678</v>
       </c>
       <c r="T7">
-        <v>0.7140490787233057</v>
+        <v>0.7138761879413678</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>5.403558</v>
       </c>
       <c r="I8">
-        <v>0.1112660717878889</v>
+        <v>0.111260758960513</v>
       </c>
       <c r="J8">
-        <v>0.1112660717878889</v>
+        <v>0.111260758960513</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.07360033333333334</v>
+        <v>0.07409833333333334</v>
       </c>
       <c r="N8">
-        <v>0.220801</v>
+        <v>0.222295</v>
       </c>
       <c r="O8">
-        <v>0.02873450582079328</v>
+        <v>0.02892330792240624</v>
       </c>
       <c r="P8">
-        <v>0.02873450582079328</v>
+        <v>0.02892330792240624</v>
       </c>
       <c r="Q8">
-        <v>0.1325678899953334</v>
+        <v>0.1334648806233333</v>
       </c>
       <c r="R8">
-        <v>1.193111009958</v>
+        <v>1.20118392561</v>
       </c>
       <c r="S8">
-        <v>0.003197175587445897</v>
+        <v>0.003218029191095538</v>
       </c>
       <c r="T8">
-        <v>0.003197175587445897</v>
+        <v>0.003218029191095538</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.403558</v>
       </c>
       <c r="I9">
-        <v>0.1112660717878889</v>
+        <v>0.111260758960513</v>
       </c>
       <c r="J9">
-        <v>0.1112660717878889</v>
+        <v>0.111260758960513</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>1.264165</v>
       </c>
       <c r="O9">
-        <v>0.1645153624799848</v>
+        <v>0.1644833827109413</v>
       </c>
       <c r="P9">
-        <v>0.1645153624799848</v>
+        <v>0.1644833827109413</v>
       </c>
       <c r="Q9">
         <v>0.7589987665633333</v>
@@ -1004,10 +1004,10 @@
         <v>6.83098889907</v>
       </c>
       <c r="S9">
-        <v>0.01830497813190856</v>
+        <v>0.01830054599681185</v>
       </c>
       <c r="T9">
-        <v>0.01830497813190856</v>
+        <v>0.01830054599681185</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.403558</v>
       </c>
       <c r="I10">
-        <v>0.1112660717878889</v>
+        <v>0.111260758960513</v>
       </c>
       <c r="J10">
-        <v>0.1112660717878889</v>
+        <v>0.111260758960513</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>6.199210000000001</v>
       </c>
       <c r="O10">
-        <v>0.8067501316992219</v>
+        <v>0.8065933093666526</v>
       </c>
       <c r="P10">
-        <v>0.8067501316992219</v>
+        <v>0.8065933093666525</v>
       </c>
       <c r="Q10">
         <v>3.721976754353334</v>
@@ -1066,10 +1066,10 @@
         <v>33.49779078918001</v>
       </c>
       <c r="S10">
-        <v>0.08976391806853448</v>
+        <v>0.08974218377260565</v>
       </c>
       <c r="T10">
-        <v>0.08976391806853447</v>
+        <v>0.08974218377260565</v>
       </c>
     </row>
   </sheetData>
